--- a/output.xlsx
+++ b/output.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21540" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="94">
   <si>
     <t>-----ID-----</t>
   </si>
@@ -22,274 +23,277 @@
     <t>--Origin Postal Code--</t>
   </si>
   <si>
+    <t>---Goods issue date---</t>
+  </si>
+  <si>
+    <t>-----Transit time-----</t>
+  </si>
+  <si>
+    <t>-----Delivery Date-----</t>
+  </si>
+  <si>
+    <t>--Destination Postal Code--</t>
+  </si>
+  <si>
+    <t>---Destination ID---</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>-----Total Wt-----</t>
+  </si>
+  <si>
+    <t>--Total Distance--</t>
+  </si>
+  <si>
     <t>PC19300</t>
   </si>
   <si>
+    <t>4 day(s) 00:00:00</t>
+  </si>
+  <si>
     <t>251 01</t>
   </si>
   <si>
+    <t>1514.6 km</t>
+  </si>
+  <si>
+    <t>wt1</t>
+  </si>
+  <si>
+    <t>1 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2 day(s) 00:00:00</t>
+  </si>
+  <si>
     <t>LE3 8JT</t>
   </si>
   <si>
+    <t>1137.9 km</t>
+  </si>
+  <si>
+    <t>wt2</t>
+  </si>
+  <si>
+    <t>0 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>wt3</t>
+  </si>
+  <si>
+    <t>7 day(s) 00:00:00</t>
+  </si>
+  <si>
     <t>13230</t>
   </si>
   <si>
-    <t>---Goods issue date---</t>
-  </si>
-  <si>
-    <t>-----Transit time-----</t>
-  </si>
-  <si>
-    <t>4 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>2 day(s) 00:00:00</t>
+    <t>1045.7 km</t>
+  </si>
+  <si>
+    <t>wt4</t>
   </si>
   <si>
     <t>3 day(s) 00:00:00</t>
   </si>
   <si>
+    <t>wt5</t>
+  </si>
+  <si>
+    <t>wt6</t>
+  </si>
+  <si>
+    <t>wt7</t>
+  </si>
+  <si>
+    <t>wt8</t>
+  </si>
+  <si>
+    <t>wt9</t>
+  </si>
+  <si>
+    <t>wt10</t>
+  </si>
+  <si>
+    <t>wt11</t>
+  </si>
+  <si>
+    <t>wt12</t>
+  </si>
+  <si>
+    <t>1121.9 km</t>
+  </si>
+  <si>
+    <t>wt13</t>
+  </si>
+  <si>
+    <t>wt14</t>
+  </si>
+  <si>
+    <t>wt15</t>
+  </si>
+  <si>
+    <t>wt16</t>
+  </si>
+  <si>
+    <t>wt17</t>
+  </si>
+  <si>
+    <t>######</t>
+  </si>
+  <si>
+    <t>32 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>20466.1 km</t>
+  </si>
+  <si>
+    <t>6 day(s) 00:00:00</t>
+  </si>
+  <si>
     <t>5 day(s) 00:00:00</t>
   </si>
   <si>
+    <t>1702.8 km</t>
+  </si>
+  <si>
+    <t>23 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>17260.7 km</t>
+  </si>
+  <si>
     <t>8 day(s) 00:00:00</t>
   </si>
   <si>
-    <t>7 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>1 day(s) 00:00:00</t>
+    <t>2519.5 km</t>
+  </si>
+  <si>
+    <t>11999.1 km</t>
+  </si>
+  <si>
+    <t>3029.2 km</t>
+  </si>
+  <si>
+    <t>5039.0 km</t>
+  </si>
+  <si>
+    <t>250 90</t>
+  </si>
+  <si>
+    <t>17.5 km</t>
+  </si>
+  <si>
+    <t>2293.2 km</t>
+  </si>
+  <si>
+    <t>30290</t>
+  </si>
+  <si>
+    <t>76.4 km</t>
+  </si>
+  <si>
+    <t>4259.3 km</t>
+  </si>
+  <si>
+    <t>DN4 5JQ</t>
+  </si>
+  <si>
+    <t>94.6 km</t>
+  </si>
+  <si>
+    <t>37 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>12286.8 km</t>
+  </si>
+  <si>
+    <t>21 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>6503.2 km</t>
+  </si>
+  <si>
+    <t>250 70</t>
+  </si>
+  <si>
+    <t>33.5 km</t>
+  </si>
+  <si>
+    <t>2124.9 km</t>
+  </si>
+  <si>
+    <t>39 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>13040.4 km</t>
+  </si>
+  <si>
+    <t>NN14 1UB</t>
+  </si>
+  <si>
+    <t>46.4 km</t>
+  </si>
+  <si>
+    <t>5443.4 km</t>
+  </si>
+  <si>
+    <t>ST5 9QD</t>
+  </si>
+  <si>
+    <t>79.3 km</t>
+  </si>
+  <si>
+    <t>2355.0 km</t>
+  </si>
+  <si>
+    <t>14 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>4429.9 km</t>
+  </si>
+  <si>
+    <t>OX16 2AA</t>
+  </si>
+  <si>
+    <t>66.1 km</t>
+  </si>
+  <si>
+    <t>26 day(s) 00:00:00</t>
+  </si>
+  <si>
+    <t>4401.4 km</t>
+  </si>
+  <si>
+    <t>3400.1 km</t>
+  </si>
+  <si>
+    <t>CV5 9DQ</t>
+  </si>
+  <si>
+    <t>35.8 km</t>
+  </si>
+  <si>
+    <t>2279.6 km</t>
+  </si>
+  <si>
+    <t>NN17 1NN</t>
+  </si>
+  <si>
+    <t>38.4 km</t>
+  </si>
+  <si>
+    <t>2282.3 km</t>
   </si>
   <si>
     <t>10 day(s) 00:00:00</t>
   </si>
   <si>
-    <t>-----Delivery Date-----</t>
-  </si>
-  <si>
-    <t>--Destination Postal Code--</t>
-  </si>
-  <si>
-    <t>250 90</t>
-  </si>
-  <si>
-    <t>30290</t>
-  </si>
-  <si>
-    <t>DN4 5JQ</t>
-  </si>
-  <si>
-    <t>250 70</t>
-  </si>
-  <si>
-    <t>NN14 1UB</t>
-  </si>
-  <si>
-    <t>ST5 9QD</t>
-  </si>
-  <si>
-    <t>OX16 2AA</t>
-  </si>
-  <si>
-    <t>CV5 9DQ</t>
-  </si>
-  <si>
-    <t>NN17 1NN</t>
-  </si>
-  <si>
-    <t>---Destination ID---</t>
-  </si>
-  <si>
-    <t>######</t>
-  </si>
-  <si>
-    <t>-------------</t>
-  </si>
-  <si>
-    <t>1514.6 km</t>
-  </si>
-  <si>
-    <t>1137.9 km</t>
-  </si>
-  <si>
-    <t>1045.7 km</t>
-  </si>
-  <si>
-    <t>1121.9 km</t>
-  </si>
-  <si>
-    <t>1702.8 km</t>
-  </si>
-  <si>
-    <t>2519.5 km</t>
-  </si>
-  <si>
-    <t>17.5 km</t>
-  </si>
-  <si>
-    <t>76.4 km</t>
-  </si>
-  <si>
-    <t>94.6 km</t>
-  </si>
-  <si>
-    <t>33.5 km</t>
-  </si>
-  <si>
-    <t>46.4 km</t>
-  </si>
-  <si>
-    <t>79.3 km</t>
-  </si>
-  <si>
-    <t>66.1 km</t>
-  </si>
-  <si>
-    <t>35.8 km</t>
-  </si>
-  <si>
-    <t>38.4 km</t>
-  </si>
-  <si>
-    <t>wt1</t>
-  </si>
-  <si>
-    <t>wt2</t>
-  </si>
-  <si>
-    <t>wt3</t>
-  </si>
-  <si>
-    <t>wt4</t>
-  </si>
-  <si>
-    <t>wt5</t>
-  </si>
-  <si>
-    <t>wt6</t>
-  </si>
-  <si>
-    <t>wt7</t>
-  </si>
-  <si>
-    <t>wt8</t>
-  </si>
-  <si>
-    <t>wt9</t>
-  </si>
-  <si>
-    <t>wt10</t>
-  </si>
-  <si>
-    <t>wt11</t>
-  </si>
-  <si>
-    <t>wt12</t>
-  </si>
-  <si>
-    <t>wt13</t>
-  </si>
-  <si>
-    <t>wt14</t>
-  </si>
-  <si>
-    <t>wt15</t>
-  </si>
-  <si>
-    <t>wt16</t>
-  </si>
-  <si>
-    <t>wt17</t>
-  </si>
-  <si>
-    <t>0 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>6 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>-----Total Wt-----</t>
-  </si>
-  <si>
-    <t>32 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>23 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>37 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>21 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>39 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>14 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>26 day(s) 00:00:00</t>
-  </si>
-  <si>
     <t>9 day(s) 00:00:00</t>
-  </si>
-  <si>
-    <t>--Total Distance--</t>
-  </si>
-  <si>
-    <t>20466.1 km</t>
-  </si>
-  <si>
-    <t>17260.7 km</t>
-  </si>
-  <si>
-    <t>11999.1 km</t>
-  </si>
-  <si>
-    <t>3029.2 km</t>
-  </si>
-  <si>
-    <t>5039.0 km</t>
-  </si>
-  <si>
-    <t>2293.2 km</t>
-  </si>
-  <si>
-    <t>4259.3 km</t>
-  </si>
-  <si>
-    <t>12286.8 km</t>
-  </si>
-  <si>
-    <t>6503.2 km</t>
-  </si>
-  <si>
-    <t>2124.9 km</t>
-  </si>
-  <si>
-    <t>13040.4 km</t>
-  </si>
-  <si>
-    <t>5443.4 km</t>
-  </si>
-  <si>
-    <t>2355.0 km</t>
-  </si>
-  <si>
-    <t>4429.9 km</t>
-  </si>
-  <si>
-    <t>4401.4 km</t>
-  </si>
-  <si>
-    <t>3400.1 km</t>
-  </si>
-  <si>
-    <t>2279.6 km</t>
-  </si>
-  <si>
-    <t>2282.3 km</t>
   </si>
   <si>
     <t>5382.7 km</t>
@@ -299,27 +303,368 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -327,19 +672,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -622,17 +1261,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D113" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="7.9" customWidth="1"/>
+    <col min="2" max="2" width="17.9" customWidth="1"/>
+    <col min="3" max="3" width="18.6" customWidth="1"/>
+    <col min="4" max="4" width="16.7" customWidth="1"/>
+    <col min="5" max="5" width="18.6" customWidth="1"/>
+    <col min="6" max="6" width="22.4" customWidth="1"/>
+    <col min="7" max="7" width="15.6" customWidth="1"/>
+    <col min="8" max="8" width="9.7" customWidth="1"/>
+    <col min="9" max="9" width="7.8" customWidth="1"/>
+    <col min="10" max="10" width="15.6" customWidth="1"/>
+    <col min="11" max="11" width="16.7" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -642,34 +1297,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -677,31 +1332,37 @@
         <v>7609</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>43350</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>43354</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>1255</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -709,31 +1370,37 @@
         <v>1255</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>43355</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>43357</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>3641</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -741,31 +1408,37 @@
         <v>3641</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>43357</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>43361</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>1199</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -773,31 +1446,37 @@
         <v>1199</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>43368</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>43370</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>1910</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -805,31 +1484,37 @@
         <v>1910</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>43371</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>43374</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>1200</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -837,31 +1522,37 @@
         <v>1200</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>43376</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>43378</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>1916</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -869,31 +1560,37 @@
         <v>1916</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>43378</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>43381</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>1204</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -901,31 +1598,37 @@
         <v>1204</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>43385</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>43388</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>1921</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -933,31 +1636,37 @@
         <v>1921</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>43391</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>43395</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1261</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -965,31 +1674,37 @@
         <v>1261</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>43395</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
         <v>43399</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>3652</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -997,31 +1712,37 @@
         <v>3652</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>43399</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>43403</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>1206</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1029,31 +1750,37 @@
         <v>1206</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>43404</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>43406</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>2892</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1061,31 +1788,37 @@
         <v>2892</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>43409</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>43411</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>3655</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1093,31 +1826,37 @@
         <v>3655</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>43413</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>43417</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>1215</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1125,31 +1864,37 @@
         <v>1215</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>43417</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>43419</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>2893</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1157,31 +1902,37 @@
         <v>2893</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>43419</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>43423</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>3659</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1189,31 +1940,37 @@
         <v>3659</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>43430</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1">
         <v>43433</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>1294</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1221,31 +1978,37 @@
         <v>1294</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>43434</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1">
         <v>43437</v>
       </c>
       <c r="F19" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1256,34 +2019,34 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1291,31 +2054,37 @@
         <v>7610</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>43350</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
         <v>43354</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>1256</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1323,31 +2092,37 @@
         <v>1256</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1">
         <v>43356</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>43360</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>3642</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1355,31 +2130,37 @@
         <v>3642</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>43363</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
         <v>43367</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>1257</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1387,31 +2168,37 @@
         <v>1257</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
         <v>43368</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>43370</v>
       </c>
       <c r="F24" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>3645</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1419,31 +2206,37 @@
         <v>3645</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
         <v>43376</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1">
         <v>43378</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>1201</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1451,31 +2244,37 @@
         <v>1201</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
         <v>43378</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>43382</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>1920</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1483,31 +2282,37 @@
         <v>1920</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>43385</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <v>43389</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1205</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1515,31 +2320,37 @@
         <v>1205</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>43391</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>43395</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <v>1924</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1547,31 +2358,37 @@
         <v>1924</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>43398</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
         <v>43402</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>1207</v>
       </c>
       <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
       <c r="J29" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1579,31 +2396,37 @@
         <v>1207</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1">
         <v>43404</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
         <v>43406</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G30">
         <v>2904</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1611,31 +2434,37 @@
         <v>2904</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <v>43406</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1">
         <v>43411</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>7618</v>
       </c>
       <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1643,31 +2472,37 @@
         <v>7618</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <v>43412</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>43416</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>1213</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1675,31 +2510,37 @@
         <v>1213</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>43416</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1">
         <v>43418</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G33">
         <v>2905</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1707,31 +2548,37 @@
         <v>2905</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
         <v>43418</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1">
         <v>43423</v>
       </c>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1742,34 +2589,34 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1777,31 +2624,37 @@
         <v>7612</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>43357</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1">
         <v>43362</v>
       </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>1258</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1809,31 +2662,37 @@
         <v>1258</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1">
         <v>43369</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
         <v>43372</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>3646</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
         <v>46</v>
       </c>
-      <c r="J37" t="s">
-        <v>11</v>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1841,31 +2700,37 @@
         <v>3646</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
         <v>43377</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
         <v>43381</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>1260</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1873,31 +2738,37 @@
         <v>1260</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
         <v>43381</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1">
         <v>43384</v>
       </c>
       <c r="F39" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G39">
         <v>3650</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1905,31 +2776,37 @@
         <v>3650</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
         <v>43385</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1">
         <v>43389</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>1262</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1937,31 +2814,37 @@
         <v>1262</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>43396</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1">
         <v>43398</v>
       </c>
       <c r="F41" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G41">
         <v>3653</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1969,31 +2852,37 @@
         <v>3653</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>43405</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1">
         <v>43410</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>1264</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2001,31 +2890,37 @@
         <v>1264</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1">
         <v>43410</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1">
         <v>43412</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G43">
         <v>7281</v>
       </c>
       <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
         <v>31</v>
       </c>
-      <c r="I43" t="s">
-        <v>52</v>
-      </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2033,31 +2928,37 @@
         <v>7281</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>43417</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1">
         <v>43425</v>
       </c>
       <c r="F44" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2068,34 +2969,34 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K45" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2103,31 +3004,37 @@
         <v>7620</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1">
         <v>43536</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
         <v>43539</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>1295</v>
       </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2135,31 +3042,37 @@
         <v>1295</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1">
         <v>43539</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1">
         <v>43544</v>
       </c>
       <c r="F47" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2170,34 +3083,34 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s">
-        <v>29</v>
-      </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K48" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2205,31 +3118,37 @@
         <v>7644</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1">
         <v>43482</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1">
         <v>43490</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G49">
         <v>7282</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2237,31 +3156,37 @@
         <v>7282</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>43493</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1">
         <v>43500</v>
       </c>
       <c r="F50" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
       </c>
       <c r="K50" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2272,34 +3197,34 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
+      <c r="H51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s">
-        <v>29</v>
-      </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2307,31 +3232,37 @@
         <v>1253</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1">
         <v>43349</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
         <v>43353</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G52">
         <v>3635</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2339,31 +3270,37 @@
         <v>3635</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
         <v>43354</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E53" s="1">
         <v>43357</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>348</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2371,31 +3308,37 @@
         <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1">
         <v>43360</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1">
         <v>43361</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L54" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2406,34 +3349,34 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>29</v>
-      </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K55" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2441,31 +3384,37 @@
         <v>1933</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
         <v>43475</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1">
         <v>43479</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>1229</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2473,31 +3422,37 @@
         <v>1229</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1">
         <v>43481</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1">
         <v>43483</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G57">
         <v>1940</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2505,31 +3460,37 @@
         <v>1940</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
         <v>43486</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1">
         <v>43488</v>
       </c>
       <c r="F58" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G58">
         <v>1232</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2537,31 +3498,37 @@
         <v>1232</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1">
         <v>43490</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1">
         <v>43493</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G59">
         <v>2617</v>
       </c>
       <c r="H59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2569,31 +3536,37 @@
         <v>2617</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1">
         <v>43493</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1">
         <v>43494</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
       </c>
       <c r="K60" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2604,34 +3577,34 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
+      <c r="H61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s">
-        <v>29</v>
-      </c>
       <c r="I61" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2639,31 +3612,37 @@
         <v>3643</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1">
         <v>43367</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1">
         <v>43370</v>
       </c>
       <c r="F62" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G62">
         <v>1259</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2671,31 +3650,37 @@
         <v>1259</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1">
         <v>43375</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1">
         <v>43378</v>
       </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G63">
         <v>3690</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2703,31 +3688,37 @@
         <v>3690</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
         <v>43385</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
         <v>43389</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G64">
         <v>1922</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2735,31 +3726,37 @@
         <v>1922</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1">
         <v>43392</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
         <v>43396</v>
       </c>
       <c r="F65" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G65">
         <v>1263</v>
       </c>
       <c r="H65" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2767,31 +3764,37 @@
         <v>1263</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1">
         <v>43396</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E66" s="1">
         <v>43399</v>
       </c>
       <c r="F66" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G66">
         <v>3654</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="K66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2799,31 +3802,37 @@
         <v>3654</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1">
         <v>43405</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E67" s="1">
         <v>43410</v>
       </c>
       <c r="F67" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G67">
         <v>1208</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J67" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2831,31 +3840,37 @@
         <v>1208</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1">
         <v>43410</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E68" s="1">
         <v>43413</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G68">
         <v>1926</v>
       </c>
       <c r="H68" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J68" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2863,31 +3878,37 @@
         <v>1926</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1">
         <v>43416</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E69" s="1">
         <v>43418</v>
       </c>
       <c r="F69" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G69">
         <v>1268</v>
       </c>
       <c r="H69" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J69" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2895,31 +3916,37 @@
         <v>1268</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1">
         <v>43419</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1">
         <v>43423</v>
       </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G70">
         <v>3703</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2927,31 +3954,37 @@
         <v>3703</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1">
         <v>43424</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1">
         <v>43427</v>
       </c>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G71">
         <v>2894</v>
       </c>
       <c r="H71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" t="s">
         <v>33</v>
       </c>
-      <c r="I71" t="s">
-        <v>54</v>
-      </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2959,31 +3992,37 @@
         <v>2894</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
         <v>43434</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1">
         <v>43437</v>
       </c>
       <c r="F72" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G72">
         <v>3764</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J72" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2991,31 +4030,37 @@
         <v>3764</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1">
         <v>43441</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" s="1">
         <v>43442</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L73" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3026,34 +4071,34 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" t="s">
+      <c r="H74" t="s">
         <v>7</v>
       </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s">
-        <v>29</v>
-      </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K74" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3061,31 +4106,37 @@
         <v>2891</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1">
         <v>43392</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E75" s="1">
         <v>43395</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G75">
         <v>3693</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3093,31 +4144,37 @@
         <v>3693</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1">
         <v>43395</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1">
         <v>43398</v>
       </c>
       <c r="F76" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G76">
         <v>1925</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3125,31 +4182,37 @@
         <v>1925</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C77" s="1">
         <v>43398</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1">
         <v>43402</v>
       </c>
       <c r="F77" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G77">
         <v>1209</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K77" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3157,31 +4220,37 @@
         <v>1209</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1">
         <v>43406</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1">
         <v>43409</v>
       </c>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G78">
         <v>1927</v>
       </c>
       <c r="H78" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K78" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3189,31 +4258,37 @@
         <v>1927</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C79" s="1">
         <v>43416</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E79" s="1">
         <v>43419</v>
       </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G79">
         <v>1218</v>
       </c>
       <c r="H79" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J79" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K79" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3221,31 +4296,37 @@
         <v>1218</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C80" s="1">
         <v>43423</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1">
         <v>43426</v>
       </c>
       <c r="F80" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G80">
         <v>2614</v>
       </c>
       <c r="H80" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J80" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="K80" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3253,31 +4334,37 @@
         <v>2614</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1">
         <v>43432</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1">
         <v>43433</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L81" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3288,34 +4375,34 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>7</v>
       </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s">
-        <v>29</v>
-      </c>
       <c r="I82" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K82" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3323,31 +4410,37 @@
         <v>1210</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1">
         <v>43406</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E83" s="1">
         <v>43409</v>
       </c>
       <c r="F83" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G83">
         <v>1928</v>
       </c>
       <c r="H83" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3355,31 +4448,37 @@
         <v>1928</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1">
         <v>43416</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1">
         <v>43418</v>
       </c>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G84">
         <v>359</v>
       </c>
       <c r="H84" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3387,31 +4486,37 @@
         <v>359</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C85" s="1">
         <v>43418</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85" s="1">
         <v>43419</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
       </c>
       <c r="K85" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3422,34 +4527,34 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" t="s">
+      <c r="H86" t="s">
         <v>7</v>
       </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" t="s">
-        <v>29</v>
-      </c>
       <c r="I86" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L86" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3457,31 +4562,37 @@
         <v>3644</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1">
         <v>43369</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E87" s="1">
         <v>43374</v>
       </c>
       <c r="F87" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G87">
         <v>1202</v>
       </c>
       <c r="H87" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K87" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3489,31 +4600,37 @@
         <v>1202</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1">
         <v>43378</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1">
         <v>43382</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G88">
         <v>2888</v>
       </c>
       <c r="H88" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3521,31 +4638,37 @@
         <v>2888</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C89" s="1">
         <v>43382</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E89" s="1">
         <v>43384</v>
       </c>
       <c r="F89" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G89">
         <v>3651</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K89" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3553,31 +4676,37 @@
         <v>3651</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1">
         <v>43391</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1">
         <v>43395</v>
       </c>
       <c r="F90" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G90">
         <v>1293</v>
       </c>
       <c r="H90" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3585,31 +4714,37 @@
         <v>1293</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1">
         <v>43395</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E91" s="1">
         <v>43399</v>
       </c>
       <c r="F91" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>7615</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3617,31 +4752,37 @@
         <v>7615</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1">
         <v>43406</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1">
         <v>43410</v>
       </c>
       <c r="F92" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G92">
         <v>1211</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J92" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K92" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3649,31 +4790,37 @@
         <v>1211</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1">
         <v>43413</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1">
         <v>43416</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G93">
         <v>1929</v>
       </c>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J93" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K93" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3681,31 +4828,37 @@
         <v>1929</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1">
         <v>43417</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E94" s="1">
         <v>43419</v>
       </c>
       <c r="F94" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G94">
         <v>1269</v>
       </c>
       <c r="H94" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J94" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3713,31 +4866,37 @@
         <v>1269</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1">
         <v>43420</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1">
         <v>43423</v>
       </c>
       <c r="F95" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G95">
         <v>3705</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K95" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3745,31 +4904,37 @@
         <v>3705</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C96" s="1">
         <v>43430</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E96" s="1">
         <v>43432</v>
       </c>
       <c r="F96" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G96">
         <v>2895</v>
       </c>
       <c r="H96" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" t="s">
         <v>33</v>
       </c>
-      <c r="I96" t="s">
-        <v>54</v>
-      </c>
       <c r="J96" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3777,31 +4942,37 @@
         <v>2895</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C97" s="1">
         <v>43434</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E97" s="1">
         <v>43438</v>
       </c>
       <c r="F97" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G97">
         <v>3765</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K97" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -3809,31 +4980,37 @@
         <v>3765</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1">
         <v>43445</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E98" s="1">
         <v>43446</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G98" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H98" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
       </c>
       <c r="K98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L98" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -3844,34 +5021,34 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" t="s">
+      <c r="H99" t="s">
         <v>7</v>
       </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" t="s">
-        <v>29</v>
-      </c>
       <c r="I99" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L99" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -3879,31 +5056,37 @@
         <v>3669</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1">
         <v>43525</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E100" s="1">
         <v>43529</v>
       </c>
       <c r="F100" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G100">
         <v>1236</v>
       </c>
       <c r="H100" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K100" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -3911,31 +5094,37 @@
         <v>1236</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1">
         <v>43530</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E101" s="1">
         <v>43535</v>
       </c>
       <c r="F101" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G101">
         <v>1945</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J101" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K101" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -3943,31 +5132,37 @@
         <v>1945</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C102" s="1">
         <v>43536</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E102" s="1">
         <v>43538</v>
       </c>
       <c r="F102" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G102">
         <v>1241</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -3975,31 +5170,37 @@
         <v>1241</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1">
         <v>43538</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E103" s="1">
         <v>43542</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G103">
         <v>2899</v>
       </c>
       <c r="H103" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J103" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4007,31 +5208,37 @@
         <v>2899</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C104" s="1">
         <v>43542</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E104" s="1">
         <v>43545</v>
       </c>
       <c r="F104" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G104">
         <v>5551</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J104" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K104" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4039,31 +5246,37 @@
         <v>5551</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C105" s="1">
         <v>43546</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1">
         <v>43549</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G105" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H105" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
       </c>
       <c r="K105" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L105" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4074,34 +5287,34 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
         <v>6</v>
       </c>
-      <c r="D106" t="s">
+      <c r="H106" t="s">
         <v>7</v>
       </c>
-      <c r="E106" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" t="s">
-        <v>29</v>
-      </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J106" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4109,31 +5322,37 @@
         <v>3670</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C107" s="1">
         <v>43525</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E107" s="1">
         <v>43529</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G107">
         <v>1284</v>
       </c>
       <c r="H107" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
         <v>45</v>
       </c>
-      <c r="J107" t="s">
-        <v>63</v>
+      <c r="K107" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4141,31 +5360,37 @@
         <v>1284</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C108" s="1">
         <v>43535</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E108" s="1">
         <v>43538</v>
       </c>
       <c r="F108" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G108">
         <v>6908</v>
       </c>
       <c r="H108" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K108" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4173,31 +5398,37 @@
         <v>6908</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C109" s="1">
         <v>43539</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1">
         <v>43542</v>
       </c>
       <c r="F109" t="s">
+        <v>75</v>
+      </c>
+      <c r="G109" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
         <v>23</v>
       </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" t="s">
-        <v>41</v>
-      </c>
-      <c r="K109" t="s">
-        <v>13</v>
-      </c>
       <c r="L109" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4208,34 +5439,34 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" t="s">
+      <c r="H110" t="s">
         <v>7</v>
       </c>
-      <c r="E110" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" t="s">
-        <v>29</v>
-      </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K110" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L110" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4243,31 +5474,37 @@
         <v>3687</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C111" s="1">
         <v>43367</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E111" s="1">
         <v>43369</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G111">
         <v>1913</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K111" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -4275,31 +5512,37 @@
         <v>1913</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C112" s="1">
         <v>43376</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E112" s="1">
         <v>43378</v>
       </c>
       <c r="F112" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G112">
         <v>1203</v>
       </c>
       <c r="H112" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J112" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4307,31 +5550,37 @@
         <v>1203</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C113" s="1">
         <v>43378</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E113" s="1">
         <v>43382</v>
       </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G113">
         <v>2889</v>
       </c>
       <c r="H113" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K113" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -4339,31 +5588,37 @@
         <v>2889</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C114" s="1">
         <v>43385</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E114" s="1">
         <v>43388</v>
       </c>
       <c r="F114" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G114">
         <v>3736</v>
       </c>
       <c r="H114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J114" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K114" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -4371,31 +5626,37 @@
         <v>3736</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C115" s="1">
         <v>43392</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" s="1">
         <v>43393</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H115" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
       </c>
       <c r="K115" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L115" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -4406,34 +5667,34 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" t="s">
+      <c r="H116" t="s">
         <v>7</v>
       </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
-      <c r="H116" t="s">
-        <v>29</v>
-      </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K116" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -4441,31 +5702,37 @@
         <v>3696</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C117" s="1">
         <v>43406</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1">
         <v>43410</v>
       </c>
       <c r="F117" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G117">
         <v>1930</v>
       </c>
       <c r="H117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K117" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -4473,31 +5740,37 @@
         <v>1930</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C118" s="1">
         <v>43417</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1">
         <v>43420</v>
       </c>
       <c r="F118" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G118">
         <v>1221</v>
       </c>
       <c r="H118" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J118" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>16</v>
+      </c>
+      <c r="L118" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -4505,31 +5778,37 @@
         <v>1221</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C119" s="1">
         <v>43427</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E119" s="1">
         <v>43431</v>
       </c>
       <c r="F119" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G119">
         <v>2896</v>
       </c>
       <c r="H119" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="K119" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4537,31 +5816,37 @@
         <v>2896</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C120" s="1">
         <v>43437</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E120" s="1">
         <v>43439</v>
       </c>
       <c r="F120" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G120">
         <v>3833</v>
       </c>
       <c r="H120" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J120" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="K120" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -4569,31 +5854,37 @@
         <v>3833</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C121" s="1">
         <v>43445</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E121" s="1">
         <v>43446</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G121" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H121" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
       </c>
       <c r="K121" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L121" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -4604,34 +5895,34 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" t="s">
+      <c r="H122" t="s">
         <v>7</v>
       </c>
-      <c r="E122" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
-      <c r="H122" t="s">
-        <v>29</v>
-      </c>
       <c r="I122" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K122" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -4639,31 +5930,37 @@
         <v>3697</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C123" s="1">
         <v>43412</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E123" s="1">
         <v>43416</v>
       </c>
       <c r="F123" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G123">
         <v>1931</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K123" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -4671,31 +5968,37 @@
         <v>1931</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C124" s="1">
         <v>43417</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E124" s="1">
         <v>43419</v>
       </c>
       <c r="F124" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G124">
         <v>1270</v>
       </c>
       <c r="H124" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J124" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -4703,31 +6006,37 @@
         <v>1270</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C125" s="1">
         <v>43419</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E125" s="1">
         <v>43424</v>
       </c>
       <c r="F125" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G125">
         <v>3758</v>
       </c>
       <c r="H125" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J125" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="K125" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -4735,31 +6044,37 @@
         <v>3758</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1">
         <v>43431</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E126" s="1">
         <v>43432</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G126" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H126" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
       </c>
       <c r="K126" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L126" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -4770,34 +6085,34 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
         <v>6</v>
       </c>
-      <c r="D127" t="s">
+      <c r="H127" t="s">
         <v>7</v>
       </c>
-      <c r="E127" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
-      <c r="H127" t="s">
-        <v>29</v>
-      </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J127" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K127" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -4805,31 +6120,37 @@
         <v>3709</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C128" s="1">
         <v>43475</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E128" s="1">
         <v>43480</v>
       </c>
       <c r="F128" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G128">
         <v>2897</v>
       </c>
       <c r="H128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="K128" t="s">
+        <v>16</v>
+      </c>
+      <c r="L128" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -4837,31 +6158,37 @@
         <v>2897</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C129" s="1">
         <v>43482</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1">
         <v>43486</v>
       </c>
       <c r="F129" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G129">
         <v>5099</v>
       </c>
       <c r="H129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J129" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K129" t="s">
+        <v>16</v>
+      </c>
+      <c r="L129" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -4869,31 +6196,37 @@
         <v>5099</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1">
         <v>43487</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E130" s="1">
         <v>43488</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G130" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
       </c>
       <c r="K130" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L130" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -4904,34 +6237,34 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
         <v>6</v>
       </c>
-      <c r="D131" t="s">
+      <c r="H131" t="s">
         <v>7</v>
       </c>
-      <c r="E131" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
-      <c r="H131" t="s">
-        <v>29</v>
-      </c>
       <c r="I131" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J131" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K131" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -4939,31 +6272,37 @@
         <v>3718</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C132" s="1">
         <v>43619</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E132" s="1">
         <v>43621</v>
       </c>
       <c r="F132" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G132">
         <v>2902</v>
       </c>
       <c r="H132" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
         <v>45</v>
       </c>
-      <c r="J132" t="s">
-        <v>63</v>
+      <c r="K132" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -4971,31 +6310,37 @@
         <v>2902</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C133" s="1">
         <v>43627</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E133" s="1">
         <v>43629</v>
       </c>
       <c r="F133" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G133">
         <v>4949</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J133" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5003,31 +6348,37 @@
         <v>4949</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C134" s="1">
         <v>43629</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E134" s="1">
         <v>43630</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H134" t="s">
-        <v>44</v>
+        <v>89</v>
+      </c>
+      <c r="I134" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
       </c>
       <c r="K134" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5038,34 +6389,34 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
         <v>6</v>
       </c>
-      <c r="D135" t="s">
+      <c r="H135" t="s">
         <v>7</v>
       </c>
-      <c r="E135" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
-      <c r="H135" t="s">
-        <v>29</v>
-      </c>
       <c r="I135" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J135" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K135" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5073,31 +6424,37 @@
         <v>3719</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C136" s="1">
         <v>43619</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E136" s="1">
         <v>43621</v>
       </c>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G136">
         <v>2903</v>
       </c>
       <c r="H136" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
         <v>45</v>
       </c>
-      <c r="J136" t="s">
-        <v>63</v>
+      <c r="K136" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5105,31 +6462,37 @@
         <v>2903</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C137" s="1">
         <v>43627</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E137" s="1">
         <v>43629</v>
       </c>
       <c r="F137" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G137">
         <v>4950</v>
       </c>
       <c r="H137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J137" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>16</v>
+      </c>
+      <c r="L137" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5137,31 +6500,37 @@
         <v>4950</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C138" s="1">
         <v>43629</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E138" s="1">
         <v>43630</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H138" t="s">
-        <v>44</v>
+        <v>89</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
       </c>
       <c r="K138" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L138" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5172,34 +6541,34 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
         <v>6</v>
       </c>
-      <c r="D139" t="s">
+      <c r="H139" t="s">
         <v>7</v>
       </c>
-      <c r="E139" t="s">
-        <v>16</v>
-      </c>
-      <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" t="s">
-        <v>29</v>
-      </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J139" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K139" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="L139" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5207,31 +6576,37 @@
         <v>3720</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C140" s="1">
         <v>43619</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E140" s="1">
         <v>43621</v>
       </c>
       <c r="F140" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G140">
         <v>2907</v>
       </c>
       <c r="H140" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
         <v>45</v>
       </c>
-      <c r="J140" t="s">
-        <v>63</v>
+      <c r="K140" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5239,31 +6614,37 @@
         <v>2907</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C141" s="1">
         <v>43627</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E141" s="1">
         <v>43634</v>
       </c>
       <c r="F141" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G141">
         <v>7647</v>
       </c>
       <c r="H141" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J141" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K141" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5271,31 +6652,37 @@
         <v>7647</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C142" s="1">
         <v>43637</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E142" s="1">
         <v>43647</v>
       </c>
       <c r="F142" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G142">
         <v>4976</v>
       </c>
       <c r="H142" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J142" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -5303,34 +6690,41 @@
         <v>4976</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C143" s="1">
         <v>43647</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" s="1">
         <v>43648</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G143" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H143" t="s">
-        <v>44</v>
+        <v>89</v>
+      </c>
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
       </c>
       <c r="K143" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L143" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>